--- a/pre_set.xlsx
+++ b/pre_set.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\share\TOSS\toss_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\share\TOSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A48402-E8A3-4E06-ADCD-94C07535AD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668F559F-8AF8-4748-9EAB-9FDFE89FFDAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25600" yWindow="-2200" windowWidth="25820" windowHeight="13800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Radii_X" sheetId="1" r:id="rId1"/>
@@ -611,7 +611,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -658,6 +658,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -977,7 +980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
@@ -11759,8 +11762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A4BB53-FDD9-4CF2-A2B8-14B0FBBEE4FE}">
   <dimension ref="A1:P118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="N118" sqref="N118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11776,7 +11779,9 @@
       <c r="F1" s="15">
         <v>-1</v>
       </c>
-      <c r="G1" s="15"/>
+      <c r="G1" s="15">
+        <v>0</v>
+      </c>
       <c r="H1" s="15">
         <v>1</v>
       </c>
@@ -11798,7 +11803,9 @@
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
+      <c r="G2" s="15">
+        <v>0</v>
+      </c>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
@@ -11818,7 +11825,9 @@
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="G3" s="15">
+        <v>0</v>
+      </c>
       <c r="H3" s="15">
         <v>1</v>
       </c>
@@ -12028,7 +12037,9 @@
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
+      <c r="G10" s="15">
+        <v>0</v>
+      </c>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
@@ -12050,7 +12061,9 @@
       <c r="F11" s="15">
         <v>-1</v>
       </c>
-      <c r="G11" s="15"/>
+      <c r="G11" s="15">
+        <v>0</v>
+      </c>
       <c r="H11" s="15">
         <v>1</v>
       </c>
@@ -12102,7 +12115,9 @@
       <c r="F13" s="15">
         <v>-1</v>
       </c>
-      <c r="G13" s="15"/>
+      <c r="G13" s="15">
+        <v>0</v>
+      </c>
       <c r="H13" s="15">
         <v>1</v>
       </c>
@@ -12244,7 +12259,9 @@
       <c r="F17" s="15">
         <v>-1</v>
       </c>
-      <c r="G17" s="15"/>
+      <c r="G17" s="15">
+        <v>0</v>
+      </c>
       <c r="H17" s="15">
         <v>1</v>
       </c>
@@ -12302,7 +12319,9 @@
       <c r="F19" s="15">
         <v>-1</v>
       </c>
-      <c r="G19" s="15"/>
+      <c r="G19" s="15">
+        <v>0</v>
+      </c>
       <c r="H19" s="15">
         <v>1</v>
       </c>
@@ -12324,7 +12343,9 @@
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
+      <c r="G20" s="15">
+        <v>0</v>
+      </c>
       <c r="H20" s="15">
         <v>1</v>
       </c>
@@ -12486,9 +12507,7 @@
       <c r="D25" s="15">
         <v>-3</v>
       </c>
-      <c r="E25" s="15">
-        <v>-2</v>
-      </c>
+      <c r="E25" s="15"/>
       <c r="F25" s="15">
         <v>-1</v>
       </c>
@@ -12555,7 +12574,9 @@
       <c r="M26" s="15">
         <v>6</v>
       </c>
-      <c r="N26" s="15"/>
+      <c r="N26" s="16">
+        <v>7</v>
+      </c>
       <c r="O26" s="15"/>
       <c r="P26" s="15"/>
     </row>
@@ -12852,7 +12873,9 @@
       <c r="F35" s="15">
         <v>-1</v>
       </c>
-      <c r="G35" s="15"/>
+      <c r="G35" s="15">
+        <v>0</v>
+      </c>
       <c r="H35" s="15">
         <v>1</v>
       </c>
@@ -12910,7 +12933,9 @@
       <c r="F37" s="15">
         <v>-1</v>
       </c>
-      <c r="G37" s="15"/>
+      <c r="G37" s="15">
+        <v>0</v>
+      </c>
       <c r="H37" s="15">
         <v>1</v>
       </c>
@@ -12932,7 +12957,9 @@
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
+      <c r="G38" s="15">
+        <v>0</v>
+      </c>
       <c r="H38" s="15">
         <v>1</v>
       </c>
@@ -13089,9 +13116,7 @@
       </c>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
-      <c r="D43" s="15">
-        <v>-3</v>
-      </c>
+      <c r="D43" s="16"/>
       <c r="E43" s="15"/>
       <c r="F43" s="15">
         <v>-1</v>
@@ -13199,7 +13224,9 @@
       <c r="M45" s="15">
         <v>6</v>
       </c>
-      <c r="N45" s="15"/>
+      <c r="N45" s="16">
+        <v>7</v>
+      </c>
       <c r="O45" s="15"/>
       <c r="P45" s="15"/>
     </row>
@@ -13227,7 +13254,9 @@
       <c r="K46" s="15">
         <v>4</v>
       </c>
-      <c r="L46" s="15"/>
+      <c r="L46" s="16">
+        <v>5</v>
+      </c>
       <c r="M46" s="15"/>
       <c r="N46" s="15"/>
       <c r="O46" s="15"/>
@@ -13276,7 +13305,9 @@
         <v>-2</v>
       </c>
       <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
+      <c r="G48" s="15">
+        <v>0</v>
+      </c>
       <c r="H48" s="15">
         <v>1</v>
       </c>
@@ -13306,7 +13337,9 @@
       <c r="F49" s="15">
         <v>-1</v>
       </c>
-      <c r="G49" s="15"/>
+      <c r="G49" s="15">
+        <v>0</v>
+      </c>
       <c r="H49" s="15">
         <v>1</v>
       </c>
@@ -13448,7 +13481,9 @@
       <c r="F53" s="15">
         <v>-1</v>
       </c>
-      <c r="G53" s="15"/>
+      <c r="G53" s="15">
+        <v>0</v>
+      </c>
       <c r="H53" s="15">
         <v>1</v>
       </c>
@@ -13514,7 +13549,9 @@
       <c r="F55" s="15">
         <v>-1</v>
       </c>
-      <c r="G55" s="15"/>
+      <c r="G55" s="15">
+        <v>0</v>
+      </c>
       <c r="H55" s="15">
         <v>1</v>
       </c>
@@ -13536,7 +13573,9 @@
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
       <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
+      <c r="G56" s="15">
+        <v>0</v>
+      </c>
       <c r="H56" s="15">
         <v>1</v>
       </c>
@@ -13588,7 +13627,9 @@
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
       <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
+      <c r="G58" s="15">
+        <v>0</v>
+      </c>
       <c r="H58" s="15"/>
       <c r="I58" s="15">
         <v>2</v>
@@ -13674,7 +13715,9 @@
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
       <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
+      <c r="G61" s="15">
+        <v>0</v>
+      </c>
       <c r="H61" s="15"/>
       <c r="I61" s="15">
         <v>2</v>
@@ -14286,7 +14329,9 @@
         <v>-2</v>
       </c>
       <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
+      <c r="G80" s="15">
+        <v>0</v>
+      </c>
       <c r="H80" s="15">
         <v>1</v>
       </c>
@@ -14316,7 +14361,9 @@
       <c r="F81" s="15">
         <v>-1</v>
       </c>
-      <c r="G81" s="15"/>
+      <c r="G81" s="15">
+        <v>0</v>
+      </c>
       <c r="H81" s="15">
         <v>1</v>
       </c>
@@ -14384,7 +14431,9 @@
       <c r="F83" s="15">
         <v>-1</v>
       </c>
-      <c r="G83" s="15"/>
+      <c r="G83" s="15">
+        <v>0</v>
+      </c>
       <c r="H83" s="15">
         <v>1</v>
       </c>
@@ -14416,7 +14465,9 @@
         <v>-2</v>
       </c>
       <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
+      <c r="G84" s="15">
+        <v>0</v>
+      </c>
       <c r="H84" s="15"/>
       <c r="I84" s="15">
         <v>2</v>
@@ -14446,7 +14497,9 @@
       <c r="F85" s="15">
         <v>-1</v>
       </c>
-      <c r="G85" s="15"/>
+      <c r="G85" s="15">
+        <v>0</v>
+      </c>
       <c r="H85" s="15">
         <v>1</v>
       </c>
@@ -14474,7 +14527,9 @@
       <c r="D86" s="15"/>
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
-      <c r="G86" s="15"/>
+      <c r="G86" s="15">
+        <v>0</v>
+      </c>
       <c r="H86" s="15"/>
       <c r="I86" s="15">
         <v>2</v>
@@ -14498,7 +14553,9 @@
       <c r="D87" s="15"/>
       <c r="E87" s="15"/>
       <c r="F87" s="15"/>
-      <c r="G87" s="15"/>
+      <c r="G87" s="15">
+        <v>0</v>
+      </c>
       <c r="H87" s="15">
         <v>1</v>
       </c>
@@ -14520,7 +14577,9 @@
       <c r="D88" s="15"/>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
-      <c r="G88" s="15"/>
+      <c r="G88" s="15">
+        <v>0</v>
+      </c>
       <c r="H88" s="15"/>
       <c r="I88" s="15">
         <v>2</v>
@@ -14542,11 +14601,11 @@
       <c r="D89" s="15"/>
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
-      <c r="G89" s="15"/>
+      <c r="G89" s="15">
+        <v>0</v>
+      </c>
       <c r="H89" s="15"/>
-      <c r="I89" s="15">
-        <v>2</v>
-      </c>
+      <c r="I89" s="16"/>
       <c r="J89" s="15">
         <v>3</v>
       </c>
@@ -14568,7 +14627,9 @@
       <c r="F90" s="15">
         <v>-1</v>
       </c>
-      <c r="G90" s="15"/>
+      <c r="G90" s="15">
+        <v>0</v>
+      </c>
       <c r="H90" s="15">
         <v>1</v>
       </c>
@@ -14596,7 +14657,9 @@
       <c r="D91" s="15"/>
       <c r="E91" s="15"/>
       <c r="F91" s="15"/>
-      <c r="G91" s="15"/>
+      <c r="G91" s="15">
+        <v>0</v>
+      </c>
       <c r="H91" s="15"/>
       <c r="I91" s="15">
         <v>2</v>
@@ -14626,7 +14689,9 @@
       <c r="F92" s="15">
         <v>-1</v>
       </c>
-      <c r="G92" s="15"/>
+      <c r="G92" s="15">
+        <v>0</v>
+      </c>
       <c r="H92" s="15">
         <v>1</v>
       </c>
@@ -14658,7 +14723,9 @@
       <c r="D93" s="15"/>
       <c r="E93" s="15"/>
       <c r="F93" s="15"/>
-      <c r="G93" s="15"/>
+      <c r="G93" s="15">
+        <v>0</v>
+      </c>
       <c r="H93" s="15"/>
       <c r="I93" s="15">
         <v>2</v>
@@ -14690,7 +14757,9 @@
       <c r="D94" s="15"/>
       <c r="E94" s="15"/>
       <c r="F94" s="15"/>
-      <c r="G94" s="15"/>
+      <c r="G94" s="15">
+        <v>0</v>
+      </c>
       <c r="H94" s="15"/>
       <c r="I94" s="15">
         <v>2</v>
@@ -14724,7 +14793,9 @@
       <c r="D95" s="15"/>
       <c r="E95" s="15"/>
       <c r="F95" s="15"/>
-      <c r="G95" s="15"/>
+      <c r="G95" s="15">
+        <v>0</v>
+      </c>
       <c r="H95" s="15"/>
       <c r="I95" s="15">
         <v>2</v>
@@ -14756,7 +14827,9 @@
       <c r="D96" s="15"/>
       <c r="E96" s="15"/>
       <c r="F96" s="15"/>
-      <c r="G96" s="15"/>
+      <c r="G96" s="15">
+        <v>0</v>
+      </c>
       <c r="H96" s="15"/>
       <c r="I96" s="15"/>
       <c r="J96" s="15">
@@ -14784,7 +14857,9 @@
       <c r="D97" s="15"/>
       <c r="E97" s="15"/>
       <c r="F97" s="15"/>
-      <c r="G97" s="15"/>
+      <c r="G97" s="15">
+        <v>0</v>
+      </c>
       <c r="H97" s="15"/>
       <c r="I97" s="15">
         <v>2</v>
@@ -14812,7 +14887,9 @@
       <c r="D98" s="15"/>
       <c r="E98" s="15"/>
       <c r="F98" s="15"/>
-      <c r="G98" s="15"/>
+      <c r="G98" s="15">
+        <v>0</v>
+      </c>
       <c r="H98" s="15"/>
       <c r="I98" s="15">
         <v>2</v>
@@ -14840,7 +14917,9 @@
       <c r="D99" s="15"/>
       <c r="E99" s="15"/>
       <c r="F99" s="15"/>
-      <c r="G99" s="15"/>
+      <c r="G99" s="15">
+        <v>0</v>
+      </c>
       <c r="H99" s="15"/>
       <c r="I99" s="15">
         <v>2</v>
@@ -14866,7 +14945,9 @@
       <c r="D100" s="15"/>
       <c r="E100" s="15"/>
       <c r="F100" s="15"/>
-      <c r="G100" s="15"/>
+      <c r="G100" s="15">
+        <v>0</v>
+      </c>
       <c r="H100" s="15"/>
       <c r="I100" s="15">
         <v>2</v>
@@ -14890,7 +14971,9 @@
       <c r="D101" s="15"/>
       <c r="E101" s="15"/>
       <c r="F101" s="15"/>
-      <c r="G101" s="15"/>
+      <c r="G101" s="15">
+        <v>0</v>
+      </c>
       <c r="H101" s="15"/>
       <c r="I101" s="15">
         <v>2</v>
@@ -14914,7 +14997,9 @@
       <c r="D102" s="15"/>
       <c r="E102" s="15"/>
       <c r="F102" s="15"/>
-      <c r="G102" s="15"/>
+      <c r="G102" s="15">
+        <v>0</v>
+      </c>
       <c r="H102" s="15"/>
       <c r="I102" s="15">
         <v>2</v>
@@ -14938,7 +15023,9 @@
       <c r="D103" s="15"/>
       <c r="E103" s="15"/>
       <c r="F103" s="15"/>
-      <c r="G103" s="15"/>
+      <c r="G103" s="15">
+        <v>0</v>
+      </c>
       <c r="H103" s="15"/>
       <c r="I103" s="15"/>
       <c r="J103" s="15">
@@ -14960,7 +15047,9 @@
       <c r="D104" s="15"/>
       <c r="E104" s="15"/>
       <c r="F104" s="15"/>
-      <c r="G104" s="15"/>
+      <c r="G104" s="15">
+        <v>0</v>
+      </c>
       <c r="H104" s="15"/>
       <c r="I104" s="15"/>
       <c r="J104" s="15"/>
@@ -14982,7 +15071,9 @@
       <c r="D105" s="15"/>
       <c r="E105" s="15"/>
       <c r="F105" s="15"/>
-      <c r="G105" s="15"/>
+      <c r="G105" s="15">
+        <v>0</v>
+      </c>
       <c r="H105" s="15"/>
       <c r="I105" s="15"/>
       <c r="J105" s="15"/>
@@ -15028,7 +15119,9 @@
       <c r="D107" s="15"/>
       <c r="E107" s="15"/>
       <c r="F107" s="15"/>
-      <c r="G107" s="15"/>
+      <c r="G107" s="15">
+        <v>0</v>
+      </c>
       <c r="H107" s="15"/>
       <c r="I107" s="15"/>
       <c r="J107" s="15"/>
@@ -15050,7 +15143,9 @@
       <c r="D108" s="15"/>
       <c r="E108" s="15"/>
       <c r="F108" s="15"/>
-      <c r="G108" s="15"/>
+      <c r="G108" s="15">
+        <v>0</v>
+      </c>
       <c r="H108" s="15"/>
       <c r="I108" s="15"/>
       <c r="J108" s="15"/>
@@ -15072,7 +15167,9 @@
       <c r="D109" s="15"/>
       <c r="E109" s="15"/>
       <c r="F109" s="15"/>
-      <c r="G109" s="15"/>
+      <c r="G109" s="15">
+        <v>0</v>
+      </c>
       <c r="H109" s="15"/>
       <c r="I109" s="15"/>
       <c r="J109" s="15"/>
@@ -15092,7 +15189,9 @@
       <c r="D110" s="15"/>
       <c r="E110" s="15"/>
       <c r="F110" s="15"/>
-      <c r="G110" s="15"/>
+      <c r="G110" s="15">
+        <v>0</v>
+      </c>
       <c r="H110" s="15"/>
       <c r="I110" s="15"/>
       <c r="J110" s="15"/>
@@ -15112,7 +15211,9 @@
       <c r="D111" s="15"/>
       <c r="E111" s="15"/>
       <c r="F111" s="15"/>
-      <c r="G111" s="15"/>
+      <c r="G111" s="15">
+        <v>0</v>
+      </c>
       <c r="H111" s="15"/>
       <c r="I111" s="15"/>
       <c r="J111" s="15"/>
@@ -15132,7 +15233,9 @@
       <c r="D112" s="15"/>
       <c r="E112" s="15"/>
       <c r="F112" s="15"/>
-      <c r="G112" s="15"/>
+      <c r="G112" s="15">
+        <v>0</v>
+      </c>
       <c r="H112" s="15"/>
       <c r="I112" s="15">
         <v>2</v>
@@ -15154,7 +15257,9 @@
       <c r="D113" s="15"/>
       <c r="E113" s="15"/>
       <c r="F113" s="15"/>
-      <c r="G113" s="15"/>
+      <c r="G113" s="15">
+        <v>0</v>
+      </c>
       <c r="H113" s="15"/>
       <c r="I113" s="15"/>
       <c r="J113" s="15"/>
@@ -15174,7 +15279,9 @@
       <c r="D114" s="15"/>
       <c r="E114" s="15"/>
       <c r="F114" s="15"/>
-      <c r="G114" s="15"/>
+      <c r="G114" s="15">
+        <v>0</v>
+      </c>
       <c r="H114" s="15"/>
       <c r="I114" s="15"/>
       <c r="J114" s="15"/>
@@ -15194,7 +15301,9 @@
       <c r="D115" s="15"/>
       <c r="E115" s="15"/>
       <c r="F115" s="15"/>
-      <c r="G115" s="15"/>
+      <c r="G115" s="15">
+        <v>0</v>
+      </c>
       <c r="H115" s="15"/>
       <c r="I115" s="15"/>
       <c r="J115" s="15"/>
@@ -15214,7 +15323,9 @@
       <c r="D116" s="15"/>
       <c r="E116" s="15"/>
       <c r="F116" s="15"/>
-      <c r="G116" s="15"/>
+      <c r="G116" s="15">
+        <v>0</v>
+      </c>
       <c r="H116" s="15"/>
       <c r="I116" s="15"/>
       <c r="J116" s="15"/>
@@ -15234,7 +15345,9 @@
       <c r="D117" s="15"/>
       <c r="E117" s="15"/>
       <c r="F117" s="15"/>
-      <c r="G117" s="15"/>
+      <c r="G117" s="15">
+        <v>0</v>
+      </c>
       <c r="H117" s="15"/>
       <c r="I117" s="15"/>
       <c r="J117" s="15"/>
@@ -15254,7 +15367,9 @@
       <c r="D118" s="15"/>
       <c r="E118" s="15"/>
       <c r="F118" s="15"/>
-      <c r="G118" s="15"/>
+      <c r="G118" s="15">
+        <v>0</v>
+      </c>
       <c r="H118" s="15"/>
       <c r="I118" s="15"/>
       <c r="J118" s="15"/>
@@ -15268,5 +15383,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>